--- a/reports/sea_raw_data/date_city_quantity.xlsx
+++ b/reports/sea_raw_data/date_city_quantity.xlsx
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81">
